--- a/curso-completo/excel_365_do_zero_ao_avancado/4.basico_expressoes_e_funcoes/53.expressoes_com_datas/45+-+Expressões+com+Datas.xlsx
+++ b/curso-completo/excel_365_do_zero_ao_avancado/4.basico_expressoes_e_funcoes/53.expressoes_com_datas/45+-+Expressões+com+Datas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aula\Desktop\Curso de Excel\Capítulo 03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel-nivel-especialista\curso-completo\excel_365_do_zero_ao_avancado\4.basico_expressoes_e_funcoes\53.expressoes_com_datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A7ECE3-F83A-44F8-A2A3-C80C8B1DFAD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80B5989-5BC6-4FB4-AC7A-9945F8822C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{851E89D6-2654-4F34-8E0C-E870017DE456}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{851E89D6-2654-4F34-8E0C-E870017DE456}"/>
   </bookViews>
   <sheets>
     <sheet name="Expressões Datas" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -232,12 +224,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -257,7 +243,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -267,6 +252,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -585,45 +577,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE5155D-10BE-4AB6-89E0-20C2DF17DBAD}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="12.08984375" customWidth="1"/>
-    <col min="4" max="4" width="16.7265625" customWidth="1"/>
-    <col min="5" max="5" width="2.08984375" customWidth="1"/>
-    <col min="6" max="6" width="19.453125" customWidth="1"/>
-    <col min="8" max="8" width="21.1796875" customWidth="1"/>
-    <col min="9" max="9" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.1796875" customWidth="1"/>
-    <col min="12" max="12" width="11.7265625" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" customWidth="1"/>
+    <col min="5" max="5" width="2.109375" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" customWidth="1"/>
+    <col min="8" max="8" width="21.21875" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.21875" customWidth="1"/>
+    <col min="12" max="12" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F5" s="22" t="s">
+    <row r="2" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F5" s="19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B6" s="18" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="15" t="s">
         <v>7</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="4" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="4.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
         <v>8</v>
       </c>
@@ -637,221 +629,281 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B11" s="12">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="10">
         <v>44600</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="6">
         <v>43</v>
       </c>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B12" s="14">
+      <c r="F11" s="9">
+        <f>B11+D11</f>
+        <v>44643</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="12">
         <v>44616</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="14">
         <v>27</v>
       </c>
-      <c r="F12" s="17"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B13" s="12">
+      <c r="F12" s="22">
+        <f>B12-D12</f>
+        <v>44589</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="10">
         <v>44600</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="6">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B14" s="14">
+      <c r="F13" s="9">
+        <f>B13-D13</f>
+        <v>44575</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="12">
         <v>44605</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="14">
         <v>29</v>
       </c>
-      <c r="F14" s="17"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B15" s="12">
+      <c r="F14" s="22">
+        <f>B14-D14</f>
+        <v>44576</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="10">
         <v>44669</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B16" s="14">
+      <c r="F15" s="9">
+        <f>B15+D15</f>
+        <v>44686</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="12">
         <v>44565</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="14">
         <v>4</v>
       </c>
-      <c r="F16" s="17"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B17" s="12">
+      <c r="F16" s="22">
+        <f>B16+D16</f>
+        <v>44569</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="10">
         <v>44648</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="6">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B20" s="9" t="s">
+      <c r="F17" s="9">
+        <f>B17+D17</f>
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-    </row>
-    <row r="21" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="22" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="20" t="s">
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+    </row>
+    <row r="21" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="16">
         <v>44670</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B24" s="13" t="s">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B25" s="10">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="8">
         <v>1</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="8">
         <v>25</v>
       </c>
-      <c r="D25" s="12"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B26" s="15">
+      <c r="D25" s="10">
+        <f>$C$22+C25</f>
+        <v>44695</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="13">
         <v>2</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="13">
         <v>35</v>
       </c>
-      <c r="D26" s="14"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B27" s="10">
+      <c r="D26" s="12">
+        <f>D25+C26</f>
+        <v>44730</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="8">
         <v>3</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="8">
         <v>30</v>
       </c>
-      <c r="D27" s="12"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B28" s="15">
+      <c r="D27" s="10">
+        <f>D26+C27</f>
+        <v>44760</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="13">
         <v>4</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="13">
         <v>31</v>
       </c>
-      <c r="D28" s="14"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B29" s="10">
+      <c r="D28" s="12">
+        <f>D27+C28</f>
+        <v>44791</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="8">
         <v>5</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="8">
         <v>32</v>
       </c>
-      <c r="D29" s="12"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B30" s="15">
+      <c r="D29" s="10">
+        <f>D28+C29</f>
+        <v>44823</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="13">
         <v>6</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="13">
         <v>43</v>
       </c>
-      <c r="D30" s="14"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B31" s="10">
+      <c r="D30" s="12">
+        <f>D29+C30</f>
+        <v>44866</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="8">
         <v>7</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="8">
         <v>34</v>
       </c>
-      <c r="D31" s="12"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B32" s="15">
+      <c r="D31" s="10">
+        <f>D30+C31</f>
+        <v>44900</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="13">
         <v>8</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="13">
         <v>29</v>
       </c>
-      <c r="D32" s="14"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B33" s="10">
+      <c r="D32" s="12">
+        <f>D31+C32</f>
+        <v>44929</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="8">
         <v>9</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="8">
         <v>36</v>
       </c>
-      <c r="D33" s="12"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B34" s="15">
+      <c r="D33" s="10">
+        <f>D32+C33</f>
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="13">
         <v>10</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="13">
         <v>39</v>
       </c>
-      <c r="D34" s="14"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B35" s="10">
+      <c r="D34" s="12">
+        <f>D33+C34</f>
+        <v>45004</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" s="8">
         <v>11</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="8">
         <v>44</v>
       </c>
-      <c r="D35" s="12"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B36" s="15">
+      <c r="D35" s="10">
+        <f>D34+C35</f>
+        <v>45048</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="13">
         <v>12</v>
       </c>
-      <c r="C36" s="15">
+      <c r="C36" s="13">
         <v>39</v>
       </c>
-      <c r="D36" s="14"/>
+      <c r="D36" s="12">
+        <f>D35+C36</f>
+        <v>45087</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -871,29 +923,29 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="16.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.77734375" style="1"/>
+    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:3" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
@@ -901,7 +953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
@@ -909,18 +961,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:XFD2"/>
